--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B66EEE0E-7793-4D98-9BEE-A78371A6E345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theer\git\HSMFramework1\GUISeleniumFramework\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E117FB-A2A4-4085-B315-82FE2DC2CDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="6330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3552" yWindow="1380" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
@@ -14,7 +19,6 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="163">
   <si>
     <t>TC_ID</t>
   </si>
@@ -32,15 +36,9 @@
     <t>TestcaseName</t>
   </si>
   <si>
-    <t>organizationName</t>
-  </si>
-  <si>
     <t>tc_01</t>
   </si>
   <si>
-    <t>createorgtest</t>
-  </si>
-  <si>
     <t>ProductCat</t>
   </si>
   <si>
@@ -353,9 +351,6 @@
     <t>v-50</t>
   </si>
   <si>
-    <t>createOrgWithType</t>
-  </si>
-  <si>
     <t>tc_02</t>
   </si>
   <si>
@@ -365,12 +360,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>createOrgWithPhoneNumber</t>
-  </si>
-  <si>
-    <t>Industries</t>
-  </si>
-  <si>
     <t>tc_04</t>
   </si>
   <si>
@@ -392,18 +381,6 @@
     <t>ContactLastName</t>
   </si>
   <si>
-    <t>instagram_</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
     <t>Deepak_</t>
   </si>
   <si>
@@ -416,15 +393,6 @@
     <t>createcontactTest</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>9880008898</t>
-  </si>
-  <si>
-    <t>DeleteOrgTest</t>
-  </si>
-  <si>
     <t>BrandName</t>
   </si>
   <si>
@@ -443,17 +411,137 @@
     <t>Apple iPhone 14 Pro Max (128 GB) - Space Black</t>
   </si>
   <si>
-    <t>faceBook_kdd</t>
+    <t>AddPatient</t>
+  </si>
+  <si>
+    <t>PatientName</t>
+  </si>
+  <si>
+    <t>PatientContactNum</t>
+  </si>
+  <si>
+    <t>Pateint Email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Patient Address</t>
+  </si>
+  <si>
+    <t>Patient Age</t>
+  </si>
+  <si>
+    <t>Medical History</t>
+  </si>
+  <si>
+    <t>shubha</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>mangalore</t>
+  </si>
+  <si>
+    <t>Nill</t>
+  </si>
+  <si>
+    <t>Searchpatient</t>
+  </si>
+  <si>
+    <t>PatientMblNum</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>shubha@4gmail.com</t>
+  </si>
+  <si>
+    <t>Add Patient History</t>
+  </si>
+  <si>
+    <t>Blood Pressure</t>
+  </si>
+  <si>
+    <t>Blood sugar</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Prescription</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>paracetomal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update patient </t>
+  </si>
+  <si>
+    <t>shubha gopal</t>
+  </si>
+  <si>
+    <t>updated PatientName</t>
+  </si>
+  <si>
+    <t>robert</t>
+  </si>
+  <si>
+    <t>9380862212</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>AdminLogin</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Test@12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,18 +596,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -804,15 +899,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,34 +915,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,34 +950,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,27 +985,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -921,20 +1016,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,25 +1042,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,33 +1103,29 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,27 +1133,45 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,23 +1179,41 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="D11" s="3"/>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A691E260-6894-4B09-9E4E-2071B647AF8F}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{5F35FB3C-6290-400E-9A83-318F31684B92}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1059,42 +1226,42 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1110,810 +1277,810 @@
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="4" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="4" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="4" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="4" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="4" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B85" s="4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" s="4" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="4" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" s="4" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" s="4" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" s="4" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B92" s="4" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B93" s="4" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="4" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B95" s="4" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B96" s="4" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" s="4" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="4" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B66EEE0E-7793-4D98-9BEE-A78371A6E345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhara\git\HSMFramework\GUISeleniumFramework\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FD964C-0400-4E28-B557-7E4AE7F162F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="6330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
@@ -14,9 +19,8 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="157">
   <si>
     <t>TC_ID</t>
   </si>
@@ -38,9 +42,6 @@
     <t>tc_01</t>
   </si>
   <si>
-    <t>createorgtest</t>
-  </si>
-  <si>
     <t>ProductCat</t>
   </si>
   <si>
@@ -353,9 +354,6 @@
     <t>v-50</t>
   </si>
   <si>
-    <t>createOrgWithType</t>
-  </si>
-  <si>
     <t>tc_02</t>
   </si>
   <si>
@@ -365,12 +363,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>createOrgWithPhoneNumber</t>
-  </si>
-  <si>
-    <t>Industries</t>
-  </si>
-  <si>
     <t>tc_04</t>
   </si>
   <si>
@@ -392,18 +384,6 @@
     <t>ContactLastName</t>
   </si>
   <si>
-    <t>instagram_</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
     <t>Deepak_</t>
   </si>
   <si>
@@ -416,12 +396,6 @@
     <t>createcontactTest</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>9880008898</t>
-  </si>
-  <si>
     <t>DeleteOrgTest</t>
   </si>
   <si>
@@ -443,17 +417,107 @@
     <t>Apple iPhone 14 Pro Max (128 GB) - Space Black</t>
   </si>
   <si>
-    <t>faceBook_kdd</t>
+    <t>Doctorname</t>
+  </si>
+  <si>
+    <t>Bharath</t>
+  </si>
+  <si>
+    <t>clinic address</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>consultancy fee</t>
+  </si>
+  <si>
+    <t>contact no</t>
+  </si>
+  <si>
+    <t>doctor mail</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>cnf password</t>
+  </si>
+  <si>
+    <t>patient name</t>
+  </si>
+  <si>
+    <t>shaik</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>shaik1@gmail.com</t>
+  </si>
+  <si>
+    <t>Shaik@123</t>
+  </si>
+  <si>
+    <t>specialization</t>
+  </si>
+  <si>
+    <t>ENT</t>
+  </si>
+  <si>
+    <t>Radiology</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1234569078</t>
+  </si>
+  <si>
+    <t>Bharath@123</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>created doctor</t>
+  </si>
+  <si>
+    <t>Bharath4023</t>
+  </si>
+  <si>
+    <t>Bharath554</t>
+  </si>
+  <si>
+    <t>Bharath4054</t>
+  </si>
+  <si>
+    <t>Bharath1236</t>
+  </si>
+  <si>
+    <t>Bharath2921</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,18 +572,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -804,15 +877,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,34 +893,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,34 +928,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="B5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,27 +963,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -921,108 +994,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,19 +1139,24 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{99045049-4368-4390-9A17-40FBA1A323B7}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{B045AE54-84E6-4A01-AC68-45F90C8F34A7}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{9BCF838B-A1B0-427B-A98A-22C334C8B691}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1059,42 +1169,42 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1110,810 +1220,810 @@
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="4" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="4" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="4" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="4" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="4" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B85" s="4" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" s="4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="4" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" s="4" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" s="4" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" s="4" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B92" s="4" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B93" s="4" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="4" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B95" s="4" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B96" s="4" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" s="4" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="4" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="4" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
   <si>
     <t>TC_ID</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>Bharath2921</t>
+  </si>
+  <si>
+    <t>Bharath1614</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
         <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="159">
   <si>
     <t>TC_ID</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Bharath1614</t>
+  </si>
+  <si>
+    <t>Bharath2669</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
         <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="160">
   <si>
     <t>TC_ID</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Bharath2669</t>
+  </si>
+  <si>
+    <t>Bharath652</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1070,7 @@
         <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
